--- a/CH4/CH4_notes_2021_06-14.xlsx
+++ b/CH4/CH4_notes_2021_06-14.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tessamd\Desktop\Ecuador Discharge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Ecuador2021/Ecuador2021/CH4/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_4F5EF0D55683EADC905A085F43D86CFC2AD2FDAF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="9320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -373,16 +374,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G6" sqref="A6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,7 +406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -428,7 +429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -451,7 +452,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -474,7 +475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -497,7 +498,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -520,7 +521,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -543,7 +544,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -566,7 +567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -589,7 +590,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -612,7 +613,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -635,7 +636,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -658,7 +659,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -681,7 +682,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -704,7 +705,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -727,7 +728,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
